--- a/XNA/ZombiesDesign.xlsx
+++ b/XNA/ZombiesDesign.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Zombie name</t>
   </si>
@@ -180,6 +180,27 @@
   </si>
   <si>
     <t>Defense</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
+  </si>
+  <si>
+    <t>FootAttackX</t>
+  </si>
+  <si>
+    <t>FootAttackY</t>
+  </si>
+  <si>
+    <t>FootDeathX</t>
+  </si>
+  <si>
+    <t>FootDeathY</t>
+  </si>
+  <si>
+    <t>FootWalkX</t>
+  </si>
+  <si>
+    <t>FootWalkY</t>
   </si>
 </sst>
 </file>
@@ -528,28 +549,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,17 +601,38 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -595,14 +643,14 @@
         <v>37</v>
       </c>
       <c r="D2" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
         <v>70</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F20" si="0">D2*E2*0.01</f>
-        <v>18.2</v>
+        <v>21.7</v>
       </c>
       <c r="G2" s="3">
         <v>7</v>
@@ -610,20 +658,45 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I20" si="1">G2*H2*(0.3 + 0.7*E2*0.01)</f>
+      <c r="I2">
+        <f>ROUND(H2/33,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J20" si="1">G2*H2*(0.3 + 0.7*E2*0.01)</f>
         <v>5.53</v>
       </c>
-      <c r="J2" s="4">
-        <f t="shared" ref="J2:J20" si="2">I2+F2</f>
-        <v>23.73</v>
-      </c>
-      <c r="K2">
-        <f>RANK(J2,$J$2:$J$20, 0)</f>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:K20" si="2">J2+F2</f>
+        <v>27.23</v>
+      </c>
+      <c r="L2">
+        <f>RANK(K2,$K$2:$K$20, 0)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>38</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>36</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -634,14 +707,14 @@
         <v>34</v>
       </c>
       <c r="D3" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3">
         <v>12</v>
@@ -649,20 +722,45 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
+        <f t="shared" ref="I3:I20" si="3">ROUND(H3/33,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K2:K20" si="3">RANK(J3,$J$2:$J$20, 0)</f>
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="4">RANK(K3,$K$2:$K$20, 0)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>92</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>92</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>72</v>
+      </c>
+      <c r="T3" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -673,14 +771,14 @@
         <v>49</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>140</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>16.8</v>
       </c>
       <c r="G4" s="3">
         <v>13</v>
@@ -688,20 +786,45 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>16.64</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <f t="shared" si="2"/>
-        <v>26.44</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33.44</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>82</v>
+      </c>
+      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>71</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>62</v>
+      </c>
+      <c r="T4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -712,14 +835,14 @@
         <v>33</v>
       </c>
       <c r="D5" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3">
         <v>16</v>
@@ -727,20 +850,45 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>89</v>
+      </c>
+      <c r="O5">
+        <v>52</v>
+      </c>
+      <c r="P5">
+        <v>97</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>74</v>
+      </c>
+      <c r="T5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -751,14 +899,14 @@
         <v>43</v>
       </c>
       <c r="D6" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
         <v>150</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>25.5</v>
       </c>
       <c r="G6" s="3">
         <v>10</v>
@@ -766,20 +914,45 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <f t="shared" si="2"/>
-        <v>31.5</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>32</v>
+      </c>
+      <c r="N6">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>79</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>72</v>
+      </c>
+      <c r="T6" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -790,14 +963,14 @@
         <v>31</v>
       </c>
       <c r="D7" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>120</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="G7" s="3">
         <v>16</v>
@@ -805,20 +978,45 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>18.239999999999998</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <f t="shared" si="2"/>
-        <v>32.64</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38.64</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>26</v>
+      </c>
+      <c r="P7">
+        <v>93</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>87</v>
+      </c>
+      <c r="T7" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -829,14 +1027,14 @@
         <v>47</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>160</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>11.200000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="G8" s="3">
         <v>16</v>
@@ -844,20 +1042,45 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>22.720000000000002</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <f t="shared" si="2"/>
-        <v>33.92</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
+        <v>41.92</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>78</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8">
+        <v>76</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <v>77</v>
+      </c>
+      <c r="T8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -868,14 +1091,14 @@
         <v>42</v>
       </c>
       <c r="D9" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>120</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>28.8</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="G9" s="3">
         <v>7</v>
@@ -883,20 +1106,45 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>7.9799999999999995</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <f t="shared" si="2"/>
-        <v>36.78</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
+        <v>42.78</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>101</v>
+      </c>
+      <c r="O9">
+        <v>48</v>
+      </c>
+      <c r="P9">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>93</v>
+      </c>
+      <c r="T9" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -907,14 +1155,14 @@
         <v>32</v>
       </c>
       <c r="D10" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
         <v>120</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="G10" s="3">
         <v>22</v>
@@ -922,20 +1170,45 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>25.08</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <f t="shared" si="2"/>
-        <v>39.479999999999997</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
+        <v>45.480000000000004</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>122</v>
+      </c>
+      <c r="O10">
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>27</v>
+      </c>
+      <c r="R10">
+        <v>94</v>
+      </c>
+      <c r="T10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -946,14 +1219,14 @@
         <v>46</v>
       </c>
       <c r="D11" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>150</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>43.5</v>
       </c>
       <c r="G11" s="3">
         <v>7</v>
@@ -961,20 +1234,45 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>9.4500000000000011</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <f t="shared" si="2"/>
-        <v>45.45</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
+        <v>52.95</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>98</v>
+      </c>
+      <c r="O11">
+        <v>67</v>
+      </c>
+      <c r="P11">
+        <v>89</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <v>84</v>
+      </c>
+      <c r="T11" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -985,14 +1283,14 @@
         <v>44</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3">
         <v>220</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>19.8</v>
       </c>
       <c r="G12" s="3">
         <v>20</v>
@@ -1000,20 +1298,45 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>36.800000000000004</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>45.600000000000009</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
+        <v>56.600000000000009</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>97</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>85</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>78</v>
+      </c>
+      <c r="T12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1024,14 +1347,14 @@
         <v>41</v>
       </c>
       <c r="D13" s="3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3">
         <v>120</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>39.6</v>
+        <v>45.6</v>
       </c>
       <c r="G13" s="3">
         <v>10</v>
@@ -1039,20 +1362,45 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>66</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>62</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>61</v>
+      </c>
+      <c r="T13" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1063,14 +1411,14 @@
         <v>39</v>
       </c>
       <c r="D14" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3">
         <v>120</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>43.2</v>
+        <v>49.2</v>
       </c>
       <c r="G14" s="3">
         <v>7</v>
@@ -1078,20 +1426,45 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>7.9799999999999995</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <f t="shared" si="2"/>
-        <v>51.18</v>
-      </c>
-      <c r="K14">
-        <f>RANK(J14,$J$2:$J$20, 0)</f>
+        <v>57.18</v>
+      </c>
+      <c r="L14">
+        <f>RANK(K14,$K$2:$K$20, 0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>38</v>
+      </c>
+      <c r="N14">
+        <v>74</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>69</v>
+      </c>
+      <c r="Q14">
+        <v>24</v>
+      </c>
+      <c r="R14">
+        <v>56</v>
+      </c>
+      <c r="T14" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1102,14 +1475,14 @@
         <v>38</v>
       </c>
       <c r="D15" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
         <v>180</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>25.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G15" s="3">
         <v>18</v>
@@ -1117,20 +1490,45 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>28.08</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <f t="shared" si="2"/>
-        <v>53.28</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
+        <v>62.28</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>57</v>
+      </c>
+      <c r="N15">
+        <v>159</v>
+      </c>
+      <c r="O15">
+        <v>18</v>
+      </c>
+      <c r="P15">
+        <v>129</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+      <c r="R15">
+        <v>146</v>
+      </c>
+      <c r="T15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1141,14 +1539,14 @@
         <v>45</v>
       </c>
       <c r="D16" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3">
         <v>7</v>
@@ -1156,20 +1554,45 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
         <v>11.900000000000002</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>55.900000000000006</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <v>73</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>76</v>
+      </c>
+      <c r="Q16">
+        <v>33</v>
+      </c>
+      <c r="R16">
+        <v>72</v>
+      </c>
+      <c r="T16" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1180,14 +1603,14 @@
         <v>48</v>
       </c>
       <c r="D17" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
         <v>180</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
+        <v>43.2</v>
       </c>
       <c r="G17" s="3">
         <v>14</v>
@@ -1195,20 +1618,45 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>21.839999999999996</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <f t="shared" si="2"/>
-        <v>56.04</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
+        <v>65.039999999999992</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>84</v>
+      </c>
+      <c r="O17">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <v>78</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>74</v>
+      </c>
+      <c r="T17" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1219,14 +1667,14 @@
         <v>36</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3">
         <v>170</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>10.200000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="G18" s="3">
         <v>31</v>
@@ -1234,20 +1682,45 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="1"/>
         <v>46.19</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <f t="shared" si="2"/>
-        <v>56.39</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.89</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>68</v>
+      </c>
+      <c r="N18">
+        <v>186</v>
+      </c>
+      <c r="O18">
+        <v>-9</v>
+      </c>
+      <c r="P18">
+        <v>103</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+      <c r="R18">
+        <v>109</v>
+      </c>
+      <c r="T18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1258,14 +1731,14 @@
         <v>35</v>
       </c>
       <c r="D19" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3">
         <v>170</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>20.400000000000002</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="G19" s="3">
         <v>25</v>
@@ -1273,20 +1746,45 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="1"/>
         <v>37.25</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <f t="shared" si="2"/>
-        <v>57.650000000000006</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
+        <v>66.150000000000006</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>49</v>
+      </c>
+      <c r="N19">
+        <v>153</v>
+      </c>
+      <c r="O19">
+        <v>33</v>
+      </c>
+      <c r="P19">
+        <v>145</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>106</v>
+      </c>
+      <c r="T19" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1297,14 +1795,14 @@
         <v>40</v>
       </c>
       <c r="D20" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3">
         <v>140</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3">
         <v>14</v>
@@ -1312,23 +1810,48 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="1"/>
         <v>17.920000000000002</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <f t="shared" si="2"/>
-        <v>59.92</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>66.92</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>85</v>
+      </c>
+      <c r="O20">
+        <v>44</v>
+      </c>
+      <c r="P20">
+        <v>79</v>
+      </c>
+      <c r="Q20">
+        <v>55</v>
+      </c>
+      <c r="R20">
+        <v>92</v>
+      </c>
+      <c r="T20" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M20">
-    <sortCondition ref="J2:J20"/>
-    <sortCondition descending="1" ref="I2:I20"/>
+  <sortState ref="A2:N20">
+    <sortCondition ref="K2:K20"/>
+    <sortCondition descending="1" ref="J2:J20"/>
     <sortCondition descending="1" ref="F2:F20"/>
   </sortState>
   <hyperlinks>
